--- a/BudgetSheet_2017.xlsx
+++ b/BudgetSheet_2017.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -958,8 +958,8 @@
   </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B15" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1402,7 +1402,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="12">
-        <v>5</v>
+        <v>6.81</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -1461,7 +1461,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="20">
         <f>F6*F7*A14</f>
-        <v>6875</v>
+        <v>9363.7499999999982</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1600,7 +1600,7 @@
       <c r="E27" s="28"/>
       <c r="H27" s="29">
         <f>H13+H21+H22+H23+H24+H25</f>
-        <v>6875</v>
+        <v>9363.7499999999982</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -1639,7 +1639,7 @@
         <v>Number of participants with hotel refund (€ 85/night)</v>
       </c>
       <c r="F33" s="25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="17"/>
@@ -1657,7 +1657,7 @@
       <c r="G34" s="13"/>
       <c r="H34" s="20">
         <f>F33*F7*A34</f>
-        <v>0</v>
+        <v>5209.6499999999996</v>
       </c>
       <c r="I34" s="13"/>
     </row>
@@ -1676,7 +1676,7 @@
         <v>16</v>
       </c>
       <c r="F36" s="25">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="30"/>
@@ -1688,7 +1688,7 @@
         <v>17</v>
       </c>
       <c r="F37" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="30"/>
@@ -1703,7 +1703,7 @@
       <c r="G38" s="13"/>
       <c r="H38" s="20">
         <f>F36*300+F37*800</f>
-        <v>6800</v>
+        <v>4000</v>
       </c>
       <c r="I38" s="13"/>
     </row>
@@ -1762,7 +1762,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="25">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="I43" s="13"/>
     </row>
@@ -1830,7 +1830,7 @@
       <c r="G48" s="19"/>
       <c r="H48" s="29">
         <f>H34+H38+H40+H43+H44+H45+H46</f>
-        <v>6875</v>
+        <v>9363.65</v>
       </c>
       <c r="I48" s="19"/>
     </row>
@@ -1868,7 +1868,7 @@
       <c r="G52" s="6"/>
       <c r="H52" s="36">
         <f>H27-H48</f>
-        <v>0</v>
+        <v>9.9999999998544808E-2</v>
       </c>
       <c r="I52" s="6"/>
     </row>
